--- a/수집된 엑셀파일.xlsx
+++ b/수집된 엑셀파일.xlsx
@@ -562,7 +562,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A15"/>
+  <dimension ref="A1:A105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -578,100 +578,820 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>M_01R_12.log</t>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">------------------ show clock ------------------
+</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>A_02_26.log</t>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>M_01R_14.log</t>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>M_B3_11.log</t>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">09:06:43.645 KOREA Sat May 19 2018
+</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>A_06_27.log</t>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>A_B2_22.log</t>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">------------------ show version ------------------
+</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>A_B2_23.log</t>
+          <t>M_01R_12.log</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>M_17_21.log</t>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">------------------ show clock ------------------
+</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>M_03CA_35.log</t>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>O_04_31.log</t>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>M_B1_32.log</t>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">09:05:36.495 KOREA Sat May 19 2018
+</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>M_03OR_36.log</t>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>M_B1_33.log</t>
+      <c r="A14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">------------------ show version ------------------
+</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
+          <t>A_02_26.log</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">------------------ show clock ------------------
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">09:11:28.733 KOREA Sat May 19 2018
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">------------------ show version ------------------
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>M_01R_14.log</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">------------------ show clock ------------------
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">09:06:52.224 KOREA Sat May 19 2018
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">------------------ show version ------------------
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>M_B3_11.log</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">------------------ show clock ------------------
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">09:02:29.770 KOREA Sat May 19 2018
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">------------------ show version ------------------
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>A_06_27.log</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">------------------ show clock ------------------
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">09:13:10.313 KOREA Sat May 19 2018
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">------------------ show version ------------------
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>A_B2_22.log</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">------------------ show clock ------------------
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">09:10:49.386 KOREA Sat May 19 2018
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">------------------ show version ------------------
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
+        <is>
+          <t>A_B2_23.log</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">------------------ show clock ------------------
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">09:11:10.084 KOREA Sat May 19 2018
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">------------------ show version ------------------
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="inlineStr">
+        <is>
+          <t>M_17_21.log</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">------------------ show clock ------------------
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">09:11:43.167 KOREA Sat May 19 2018
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">------------------ show version ------------------
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="inlineStr">
+        <is>
+          <t>M_03CA_35.log</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">------------------ show clock ------------------
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">09:07:50.763 KOREA Sat May 19 2018
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">------------------ show version ------------------
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="inlineStr">
+        <is>
+          <t>O_04_31.log</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">------------------ show clock ------------------
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">09:14:02.682 KOREA Sat May 19 2018
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">------------------ show version ------------------
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="inlineStr">
+        <is>
+          <t>M_B1_32.log</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">------------------ show clock ------------------
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">09:04:13.054 KOREA Sat May 19 2018
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">------------------ show version ------------------
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="inlineStr">
+        <is>
+          <t>M_03OR_36.log</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t xml:space="preserve">------------------ show clock ------------------
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t xml:space="preserve">09:10:00.837 KOREA Sat May 19 2018
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t xml:space="preserve">------------------ show version ------------------
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="inlineStr">
+        <is>
+          <t>M_B1_33.log</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t xml:space="preserve">------------------ show clock ------------------
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t xml:space="preserve">09:04:31.895 KOREA Sat May 19 2018
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t xml:space="preserve">------------------ show version ------------------
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="inlineStr">
+        <is>
           <t>M_01O_16.log</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t xml:space="preserve">------------------ show clock ------------------
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t xml:space="preserve">09:07:08.878 KOREA Sat May 19 2018
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t xml:space="preserve">------------------ show version ------------------
+</t>
         </is>
       </c>
     </row>
